--- a/Sponsor/Mobile/card-data.xlsx
+++ b/Sponsor/Mobile/card-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsh\Desktop\ASC2023_Practice\Sponsor\Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD96DC0C-0CE1-4ECF-B6B6-1AA564249D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBD858B-FD7F-447C-B24A-D0FB2618D494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31740" yWindow="3360" windowWidth="17100" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29850" yWindow="1110" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>balance</t>
   </si>
@@ -103,13 +103,16 @@
   </si>
   <si>
     <t>5dd9db5e033da9c6fb5ba83c7a7ebea9</t>
+  </si>
+  <si>
+    <t>not provided</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +123,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF252525"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,15 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +436,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,220 +444,220 @@
     <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>2000</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>991</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>2500.1999999999998</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>3000</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6">
-        <v>896</v>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>4200.2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6">
-        <v>572</v>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>2000</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6">
-        <v>654</v>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>2500.1999999999998</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6">
-        <v>781</v>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>3000</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6">
-        <v>221</v>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>4200.2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6">
-        <v>671</v>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>2000</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7">
-        <v>382</v>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>2500.1999999999998</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6">
-        <v>786</v>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="2">
         <v>3000</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="7">
-        <v>530</v>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
